--- a/Game/resources/level design.xlsx
+++ b/Game/resources/level design.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yyy\software_engine\2025-group-5\Game\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77803BAB-1A8C-4B35-B477-37874E4243FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
   <si>
     <t>宝箱</t>
   </si>
@@ -97,18 +101,16 @@
   <si>
     <t>有火附魔，每秒掉血减攻速，持续6s</t>
   </si>
+  <si>
+    <t>玩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,151 +125,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,7 +149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,194 +165,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -567,255 +254,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,69 +336,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>43</xdr:col>
@@ -969,13 +373,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="Dragon_Adventure_01"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="Dragon_Adventure_01">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -996,7 +406,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>41</xdr:col>
@@ -1012,13 +422,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="Dragon_Adventure_02"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="Dragon_Adventure_02">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1039,7 +455,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>40</xdr:col>
@@ -1055,13 +471,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1092,7 +514,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>40</xdr:col>
@@ -1108,13 +530,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1386,21 +814,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:AN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58333333333333" defaultRowHeight="20.15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" customHeight="1" spans="20:40">
+    <row r="4" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -1421,7 +849,7 @@
       <c r="AM4" s="11"/>
       <c r="AN4" s="11"/>
     </row>
-    <row r="5" customHeight="1" spans="14:40">
+    <row r="5" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1444,7 +872,7 @@
       <c r="AM5" s="6"/>
       <c r="AN5" s="6"/>
     </row>
-    <row r="6" customHeight="1" spans="14:40">
+    <row r="6" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1452,7 +880,7 @@
       <c r="AH6" s="6"/>
       <c r="AN6" s="6"/>
     </row>
-    <row r="7" customHeight="1" spans="14:40">
+    <row r="7" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N7" s="11"/>
       <c r="V7" t="s">
         <v>1</v>
@@ -1467,7 +895,7 @@
       <c r="AK7" s="6"/>
       <c r="AN7" s="6"/>
     </row>
-    <row r="8" customHeight="1" spans="14:40">
+    <row r="8" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N8" s="11"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -1480,7 +908,7 @@
       <c r="AL8" s="6"/>
       <c r="AN8" s="6"/>
     </row>
-    <row r="9" customHeight="1" spans="14:40">
+    <row r="9" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N9" s="11"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -1489,7 +917,7 @@
       <c r="Z9" s="6"/>
       <c r="AN9" s="6"/>
     </row>
-    <row r="10" customHeight="1" spans="14:40">
+    <row r="10" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N10" s="11"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -1503,14 +931,14 @@
       </c>
       <c r="AN10" s="6"/>
     </row>
-    <row r="11" customHeight="1" spans="14:40">
+    <row r="11" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N11" s="11"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" customHeight="1" spans="3:40">
+    <row r="12" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1525,10 +953,9 @@
       <c r="Q12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
-      <c r="AB12"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" customHeight="1" spans="1:40">
+    <row r="13" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1543,7 +970,7 @@
       <c r="AH13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" customHeight="1" spans="16:40">
+    <row r="14" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="S14" s="6"/>
@@ -1552,7 +979,7 @@
       <c r="AH14" s="6"/>
       <c r="AN14" s="6"/>
     </row>
-    <row r="15" customHeight="1" spans="16:40">
+    <row r="15" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="S15" s="6"/>
@@ -1561,7 +988,7 @@
       <c r="AH15" s="6"/>
       <c r="AN15" s="6"/>
     </row>
-    <row r="16" customHeight="1" spans="1:40">
+    <row r="16" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="G16" s="6"/>
       <c r="I16" s="6"/>
@@ -1577,7 +1004,7 @@
       <c r="AH16" s="6"/>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" customHeight="1" spans="1:40">
+    <row r="17" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1590,7 +1017,7 @@
       <c r="AA17" s="6"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" customHeight="1" spans="1:40">
+    <row r="18" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1605,7 +1032,7 @@
       </c>
       <c r="AN18" s="6"/>
     </row>
-    <row r="19" customHeight="1" spans="1:40">
+    <row r="19" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1621,7 +1048,7 @@
       </c>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" customHeight="1" spans="1:40">
+    <row r="20" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="T20" s="6"/>
@@ -1631,7 +1058,7 @@
       <c r="Z20" s="6"/>
       <c r="AN20" s="6"/>
     </row>
-    <row r="21" customHeight="1" spans="2:40">
+    <row r="21" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="G21" s="6"/>
@@ -1649,7 +1076,7 @@
       <c r="AC21" s="6"/>
       <c r="AN21" s="6"/>
     </row>
-    <row r="22" customHeight="1" spans="3:40">
+    <row r="22" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="6"/>
       <c r="G22" s="6"/>
       <c r="K22" s="6"/>
@@ -1665,7 +1092,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6"/>
     </row>
-    <row r="23" customHeight="1" spans="3:40">
+    <row r="23" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="G23" s="6"/>
@@ -1682,7 +1109,7 @@
       <c r="AJ23" s="6"/>
       <c r="AN23" s="6"/>
     </row>
-    <row r="24" customHeight="1" spans="4:40">
+    <row r="24" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1699,7 +1126,7 @@
       <c r="AJ24" s="6"/>
       <c r="AN24" s="6"/>
     </row>
-    <row r="25" customHeight="1" spans="4:40">
+    <row r="25" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="6"/>
       <c r="G25" s="6"/>
       <c r="O25" s="6"/>
@@ -1724,38 +1151,37 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6"/>
     </row>
-    <row r="29" customHeight="1" spans="11:11">
+    <row r="29" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="11:11">
+    <row r="30" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="42" width="2.58333333333333" customWidth="1"/>
+    <col min="1" max="42" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1776,7 +1202,7 @@
       <c r="V1" s="6"/>
       <c r="AN1" s="6"/>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1791,7 +1217,7 @@
       <c r="V2" s="6"/>
       <c r="AN2" s="6"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1807,7 +1233,7 @@
       <c r="V3" s="6"/>
       <c r="AN3" s="6"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1822,7 +1248,7 @@
       <c r="V4" s="6"/>
       <c r="AN4" s="6"/>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1835,7 +1261,7 @@
       <c r="V5" s="6"/>
       <c r="AN5" s="6"/>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1848,7 +1274,7 @@
       <c r="V6" s="6"/>
       <c r="AN6" s="6"/>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1864,7 +1290,7 @@
       <c r="V7" s="6"/>
       <c r="AN7" s="6"/>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1883,7 +1309,7 @@
       <c r="AG8" s="6"/>
       <c r="AN8" s="6"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1903,7 +1329,7 @@
       <c r="AG9" s="6"/>
       <c r="AN9" s="6"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1923,7 +1349,7 @@
       <c r="AJ10" s="6"/>
       <c r="AN10" s="6"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1952,7 +1378,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1986,7 +1412,7 @@
       <c r="AK12" s="6"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2005,13 +1431,16 @@
       <c r="AH13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AL14" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2027,7 +1456,7 @@
       </c>
       <c r="AG15" s="6"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2046,7 +1475,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2081,7 +1510,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2115,7 +1544,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2143,7 +1572,7 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2169,7 +1598,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2188,7 +1617,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6"/>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="H22" t="s">
         <v>1</v>
@@ -2215,7 +1644,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6"/>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="D23" s="6"/>
       <c r="M23" s="6"/>
@@ -2240,7 +1669,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6"/>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -2258,7 +1687,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6"/>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2286,43 +1715,42 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6"/>
     </row>
-    <row r="28" spans="11:11">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="K28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="11:11">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="K29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="11:11">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="40" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.75" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2364,7 +1792,7 @@
       <c r="AM1" s="2"/>
       <c r="AN1" s="12"/>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2397,7 +1825,7 @@
       <c r="AM2" s="4"/>
       <c r="AN2" s="13"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2432,7 +1860,7 @@
       <c r="AM3" s="4"/>
       <c r="AN3" s="13"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="E4" s="6"/>
@@ -2465,13 +1893,13 @@
       <c r="AM4" s="11"/>
       <c r="AN4" s="14"/>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="AN5" s="15"/>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2497,7 +1925,7 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="16"/>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2525,7 +1953,7 @@
       <c r="AM7" s="4"/>
       <c r="AN7" s="13"/>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2553,7 +1981,7 @@
       <c r="AM8" s="4"/>
       <c r="AN8" s="13"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -2586,7 +2014,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="13"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2616,7 +2044,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="13"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="6"/>
       <c r="H11" s="6"/>
@@ -2647,7 +2075,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="13"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
       <c r="K12" s="6"/>
@@ -2676,7 +2104,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="13"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="D13" s="6"/>
@@ -2711,7 +2139,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="13"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="6"/>
       <c r="D14" s="6"/>
@@ -2748,7 +2176,7 @@
       <c r="AM14" s="4"/>
       <c r="AN14" s="13"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="6"/>
       <c r="D15" s="6"/>
@@ -2787,7 +2215,7 @@
       <c r="AM15" s="4"/>
       <c r="AN15" s="16"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="6"/>
       <c r="D16" s="6"/>
@@ -2826,7 +2254,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="15"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="6"/>
       <c r="D17" s="6"/>
@@ -2866,7 +2294,7 @@
       <c r="AL17" s="6"/>
       <c r="AN17" s="15"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="D18" s="6"/>
@@ -2897,7 +2325,7 @@
       <c r="AK18" s="6"/>
       <c r="AN18" s="15"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="D19" s="6"/>
@@ -2923,7 +2351,7 @@
       <c r="AJ19" s="6"/>
       <c r="AN19" s="15"/>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2949,7 +2377,7 @@
       <c r="AJ20" s="6"/>
       <c r="AN20" s="15"/>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2977,7 +2405,7 @@
       </c>
       <c r="AN21" s="15"/>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3004,7 +2432,7 @@
       <c r="AJ22" s="6"/>
       <c r="AN22" s="15"/>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="C23" t="s">
         <v>5</v>
@@ -3017,7 +2445,7 @@
       <c r="W23" s="6"/>
       <c r="AN23" s="15"/>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -3034,7 +2462,7 @@
       <c r="AI24" s="6"/>
       <c r="AN24" s="15"/>
     </row>
-    <row r="25" ht="14.75" spans="1:40">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -3076,8 +2504,7 @@
       <c r="AM25" s="21"/>
       <c r="AN25" s="23"/>
     </row>
-    <row r="26" ht="14.75"/>
-    <row r="30" spans="9:14">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="I30" t="s">
         <v>9</v>
       </c>
@@ -3085,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="9:14">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="I31" t="s">
         <v>10</v>
       </c>
@@ -3093,7 +2520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="9:14">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="I32" t="s">
         <v>11</v>
       </c>
@@ -3104,7 +2531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="9:17">
+    <row r="34" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
         <v>13</v>
       </c>
@@ -3112,43 +2539,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="9:9">
+    <row r="36" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="9:9">
+    <row r="37" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="9:9">
+    <row r="39" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I39" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="AE41" sqref="AE41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="40" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.75" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3190,7 +2616,7 @@
       <c r="AM1" s="2"/>
       <c r="AN1" s="12"/>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3232,7 +2658,7 @@
       <c r="AM2" s="4"/>
       <c r="AN2" s="13"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3265,7 +2691,7 @@
       <c r="AM3" s="4"/>
       <c r="AN3" s="13"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3297,7 +2723,7 @@
       <c r="AM4" s="11"/>
       <c r="AN4" s="14"/>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3319,7 +2745,7 @@
       <c r="Z5" s="6"/>
       <c r="AN5" s="15"/>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3334,7 +2760,7 @@
       </c>
       <c r="AN6" s="15"/>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3355,7 +2781,7 @@
       <c r="AK7" s="6"/>
       <c r="AN7" s="15"/>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3375,7 +2801,7 @@
       <c r="Z8" s="6"/>
       <c r="AN8" s="15"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="J9" s="6"/>
       <c r="N9" s="10"/>
@@ -3399,7 +2825,7 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="16"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="H10" t="s">
         <v>1</v>
@@ -3424,7 +2850,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="13"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="N11" s="10"/>
       <c r="X11" s="6"/>
@@ -3440,7 +2866,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="13"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3471,7 +2897,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="13"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3502,7 +2928,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="13"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3526,7 +2952,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="13"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3549,7 +2975,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="13"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="4"/>
@@ -3560,7 +2986,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="13"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="E17" s="6"/>
       <c r="Q17" s="6"/>
@@ -3573,7 +2999,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="13"/>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="C18" t="s">
         <v>1</v>
@@ -3598,7 +3024,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="13"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="4"/>
@@ -3616,7 +3042,7 @@
       <c r="AM19" s="4"/>
       <c r="AN19" s="13"/>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3646,7 +3072,7 @@
       <c r="AM20" s="4"/>
       <c r="AN20" s="13"/>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3688,7 +3114,7 @@
       <c r="AM21" s="4"/>
       <c r="AN21" s="13"/>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3730,7 +3156,7 @@
       <c r="AM22" s="4"/>
       <c r="AN22" s="13"/>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3772,7 +3198,7 @@
       <c r="AM23" s="4"/>
       <c r="AN23" s="13"/>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3814,7 +3240,7 @@
       <c r="AM24" s="4"/>
       <c r="AN24" s="13"/>
     </row>
-    <row r="25" ht="14.75" spans="1:40">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3856,8 +3282,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="17"/>
     </row>
-    <row r="26" ht="14.75"/>
-    <row r="36" spans="15:19">
+    <row r="36" spans="15:19" x14ac:dyDescent="0.2">
       <c r="O36" t="s">
         <v>18</v>
       </c>
@@ -3865,7 +3290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="15:19">
+    <row r="37" spans="15:19" x14ac:dyDescent="0.2">
       <c r="O37" t="s">
         <v>19</v>
       </c>
@@ -3873,7 +3298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="15:19">
+    <row r="38" spans="15:19" x14ac:dyDescent="0.2">
       <c r="O38" t="s">
         <v>20</v>
       </c>
@@ -3881,14 +3306,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="15:15">
+    <row r="40" spans="15:19" x14ac:dyDescent="0.2">
       <c r="O40" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Game/resources/level design.xlsx
+++ b/Game/resources/level design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yyy\software_engine\2025-group-5\Game\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\94940\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77803BAB-1A8C-4B35-B477-37874E4243FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D53CCD-9E94-4AEF-B4E7-4AFCBAA20CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>宝箱</t>
   </si>
@@ -55,9 +57,6 @@
   </si>
   <si>
     <t>史莱姆5</t>
-  </si>
-  <si>
-    <t>塔3</t>
   </si>
   <si>
     <t>幽灵法师2</t>
@@ -87,9 +86,6 @@
     <t>变身保留到下一关</t>
   </si>
   <si>
-    <t>水附魔 每秒减攻速移速，持续5s</t>
-  </si>
-  <si>
     <t>火法师</t>
   </si>
   <si>
@@ -99,10 +95,35 @@
     <t>火山塔</t>
   </si>
   <si>
-    <t>有火附魔，每秒掉血减攻速，持续6s</t>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩</t>
+    <t>宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>：小幽灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水附魔 每秒减攻速移速，持续3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有火附魔，每秒掉血减攻速，持续3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,7 +357,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -409,16 +436,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>629285</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>26035</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -441,8 +468,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8242300" y="6350"/>
+          <a:off x="8299450" y="6210300"/>
           <a:ext cx="7258685" cy="4482465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>198436</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>226784</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A777CD-AF28-D24D-FEFE-46D96BD7B36E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334374" y="0"/>
+          <a:ext cx="6803571" cy="4252232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -517,16 +588,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>16690</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>421640</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>109855</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>197403</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>151359</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -549,8 +620,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7270750" y="257175"/>
-          <a:ext cx="10981690" cy="6993255"/>
+          <a:off x="5686866" y="6030195"/>
+          <a:ext cx="11005596" cy="7030340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>33913</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>285897</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>99920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE97A490-A5C2-2E39-B1B6-776ED52827D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6906854" y="0"/>
+          <a:ext cx="9186808" cy="5658038"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,13 +937,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:AN30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="20.149999999999999" customHeight="1"/>
   <sheetData>
-    <row r="4" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -849,7 +964,7 @@
       <c r="AM4" s="11"/>
       <c r="AN4" s="11"/>
     </row>
-    <row r="5" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -872,7 +987,7 @@
       <c r="AM5" s="6"/>
       <c r="AN5" s="6"/>
     </row>
-    <row r="6" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="N6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -880,7 +995,7 @@
       <c r="AH6" s="6"/>
       <c r="AN6" s="6"/>
     </row>
-    <row r="7" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="N7" s="11"/>
       <c r="V7" t="s">
         <v>1</v>
@@ -895,7 +1010,7 @@
       <c r="AK7" s="6"/>
       <c r="AN7" s="6"/>
     </row>
-    <row r="8" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="N8" s="11"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -908,7 +1023,7 @@
       <c r="AL8" s="6"/>
       <c r="AN8" s="6"/>
     </row>
-    <row r="9" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="N9" s="11"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -917,7 +1032,7 @@
       <c r="Z9" s="6"/>
       <c r="AN9" s="6"/>
     </row>
-    <row r="10" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="N10" s="11"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -931,14 +1046,14 @@
       </c>
       <c r="AN10" s="6"/>
     </row>
-    <row r="11" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="N11" s="11"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -955,7 +1070,7 @@
       <c r="AA12" s="6"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -970,7 +1085,7 @@
       <c r="AH13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="S14" s="6"/>
@@ -979,7 +1094,7 @@
       <c r="AH14" s="6"/>
       <c r="AN14" s="6"/>
     </row>
-    <row r="15" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="S15" s="6"/>
@@ -988,7 +1103,7 @@
       <c r="AH15" s="6"/>
       <c r="AN15" s="6"/>
     </row>
-    <row r="16" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="A16" s="6"/>
       <c r="G16" s="6"/>
       <c r="I16" s="6"/>
@@ -1004,7 +1119,7 @@
       <c r="AH16" s="6"/>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1017,7 +1132,7 @@
       <c r="AA17" s="6"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1032,7 +1147,7 @@
       </c>
       <c r="AN18" s="6"/>
     </row>
-    <row r="19" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1048,7 +1163,7 @@
       </c>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="T20" s="6"/>
@@ -1058,7 +1173,7 @@
       <c r="Z20" s="6"/>
       <c r="AN20" s="6"/>
     </row>
-    <row r="21" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="G21" s="6"/>
@@ -1076,7 +1191,7 @@
       <c r="AC21" s="6"/>
       <c r="AN21" s="6"/>
     </row>
-    <row r="22" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="C22" s="6"/>
       <c r="G22" s="6"/>
       <c r="K22" s="6"/>
@@ -1092,7 +1207,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6"/>
     </row>
-    <row r="23" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="G23" s="6"/>
@@ -1109,7 +1224,7 @@
       <c r="AJ23" s="6"/>
       <c r="AN23" s="6"/>
     </row>
-    <row r="24" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="D24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1126,7 +1241,7 @@
       <c r="AJ24" s="6"/>
       <c r="AN24" s="6"/>
     </row>
-    <row r="25" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="D25" s="6"/>
       <c r="G25" s="6"/>
       <c r="O25" s="6"/>
@@ -1151,12 +1266,12 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6"/>
     </row>
-    <row r="29" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="K29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" ht="20.149999999999999" customHeight="1">
       <c r="K30" t="s">
         <v>4</v>
       </c>
@@ -1172,16 +1287,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="42" width="2.625" customWidth="1"/>
+    <col min="1" max="42" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1202,12 +1317,15 @@
       <c r="V1" s="6"/>
       <c r="AN1" s="6"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="G2" s="6"/>
+      <c r="H2" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="J2" s="6"/>
       <c r="M2" s="6"/>
       <c r="R2" s="6"/>
@@ -1217,7 +1335,7 @@
       <c r="V2" s="6"/>
       <c r="AN2" s="6"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1233,7 +1351,7 @@
       <c r="V3" s="6"/>
       <c r="AN3" s="6"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1248,7 +1366,7 @@
       <c r="V4" s="6"/>
       <c r="AN4" s="6"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1261,7 +1379,7 @@
       <c r="V5" s="6"/>
       <c r="AN5" s="6"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1274,7 +1392,7 @@
       <c r="V6" s="6"/>
       <c r="AN6" s="6"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1290,7 +1408,7 @@
       <c r="V7" s="6"/>
       <c r="AN7" s="6"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1309,7 +1427,7 @@
       <c r="AG8" s="6"/>
       <c r="AN8" s="6"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1329,7 +1447,7 @@
       <c r="AG9" s="6"/>
       <c r="AN9" s="6"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1349,7 +1467,7 @@
       <c r="AJ10" s="6"/>
       <c r="AN10" s="6"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1378,7 +1496,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1412,7 +1530,7 @@
       <c r="AK12" s="6"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1431,16 +1549,13 @@
       <c r="AH13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="AL14" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1454,9 +1569,9 @@
       <c r="AD15" t="s">
         <v>1</v>
       </c>
-      <c r="AG15" s="6"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AG15" s="24"/>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1475,7 +1590,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1503,14 +1618,11 @@
       <c r="AD17" s="6"/>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
-      <c r="AG17" t="s">
-        <v>2</v>
-      </c>
       <c r="AL17" s="6"/>
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1544,7 +1656,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1553,8 +1665,8 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -1572,17 +1684,19 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="M20" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
@@ -1598,7 +1712,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1617,7 +1731,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22" s="6"/>
       <c r="H22" t="s">
         <v>1</v>
@@ -1644,7 +1758,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23" s="6"/>
       <c r="D23" s="6"/>
       <c r="M23" s="6"/>
@@ -1669,7 +1783,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -1687,7 +1801,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1715,19 +1829,22 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40">
       <c r="K28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="K29" t="s">
+    <row r="29" spans="1:40">
+      <c r="K29" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
+      <c r="K30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="K30" t="s">
-        <v>8</v>
+      <c r="O30" s="26" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1741,16 +1858,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="40" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1780,8 +1897,8 @@
       <c r="AA1" s="19"/>
       <c r="AB1" s="19"/>
       <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
       <c r="AF1" s="19"/>
       <c r="AG1" s="19"/>
       <c r="AH1" s="19"/>
@@ -1792,7 +1909,7 @@
       <c r="AM1" s="2"/>
       <c r="AN1" s="12"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1818,6 +1935,9 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
@@ -1825,7 +1945,7 @@
       <c r="AM2" s="4"/>
       <c r="AN2" s="13"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1850,6 +1970,7 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="6"/>
+      <c r="AD3" s="6"/>
       <c r="AG3" t="s">
         <v>1</v>
       </c>
@@ -1860,12 +1981,18 @@
       <c r="AM3" s="4"/>
       <c r="AN3" s="13"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40">
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -1893,20 +2020,27 @@
       <c r="AM4" s="11"/>
       <c r="AN4" s="14"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40">
       <c r="A5" s="3"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
       <c r="AN5" s="15"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
-      <c r="K6" t="s">
-        <v>5</v>
-      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1925,7 +2059,7 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="16"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1953,7 +2087,7 @@
       <c r="AM7" s="4"/>
       <c r="AN7" s="13"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1981,7 +2115,7 @@
       <c r="AM8" s="4"/>
       <c r="AN8" s="13"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="A9" s="7"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -2014,7 +2148,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="13"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2044,7 +2178,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="13"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="A11" s="3"/>
       <c r="B11" s="6"/>
       <c r="H11" s="6"/>
@@ -2075,7 +2209,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="13"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
       <c r="K12" s="6"/>
@@ -2104,7 +2238,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="13"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="D13" s="6"/>
@@ -2139,7 +2273,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="13"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40">
       <c r="A14" s="3"/>
       <c r="B14" s="6"/>
       <c r="D14" s="6"/>
@@ -2176,7 +2310,7 @@
       <c r="AM14" s="4"/>
       <c r="AN14" s="13"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40">
       <c r="A15" s="3"/>
       <c r="B15" s="6"/>
       <c r="D15" s="6"/>
@@ -2215,7 +2349,7 @@
       <c r="AM15" s="4"/>
       <c r="AN15" s="16"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40">
       <c r="A16" s="3"/>
       <c r="B16" s="6"/>
       <c r="D16" s="6"/>
@@ -2252,9 +2386,9 @@
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="6"/>
-      <c r="AN16" s="15"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN16" s="6"/>
+    </row>
+    <row r="17" spans="1:40">
       <c r="A17" s="3"/>
       <c r="B17" s="6"/>
       <c r="D17" s="6"/>
@@ -2292,13 +2426,16 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="6"/>
-      <c r="AN17" s="15"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+    </row>
+    <row r="18" spans="1:40">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2312,6 +2449,8 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
       <c r="AC18" s="6"/>
@@ -2325,7 +2464,7 @@
       <c r="AK18" s="6"/>
       <c r="AN18" s="15"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="D19" s="6"/>
@@ -2341,6 +2480,8 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="4"/>
@@ -2349,15 +2490,14 @@
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="6"/>
-      <c r="AN19" s="15"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+    </row>
+    <row r="20" spans="1:40">
       <c r="A20" s="7"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -2377,7 +2517,7 @@
       <c r="AJ20" s="6"/>
       <c r="AN20" s="15"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21" s="7"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2405,7 +2545,7 @@
       </c>
       <c r="AN21" s="15"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22" s="7"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -2432,7 +2572,7 @@
       <c r="AJ22" s="6"/>
       <c r="AN22" s="15"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23" s="7"/>
       <c r="C23" t="s">
         <v>5</v>
@@ -2445,7 +2585,7 @@
       <c r="W23" s="6"/>
       <c r="AN23" s="15"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24" s="7"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -2455,6 +2595,9 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="6"/>
@@ -2462,7 +2605,7 @@
       <c r="AI24" s="6"/>
       <c r="AN24" s="15"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -2484,7 +2627,7 @@
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
+      <c r="V25" s="6"/>
       <c r="W25" s="21"/>
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
@@ -2497,61 +2640,61 @@
       <c r="AF25" s="9"/>
       <c r="AG25" s="22"/>
       <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="21"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="21"/>
       <c r="AM25" s="21"/>
       <c r="AN25" s="23"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40">
       <c r="I30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40">
       <c r="I31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40">
       <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
         <v>11</v>
-      </c>
-      <c r="J32" t="s">
-        <v>12</v>
       </c>
       <c r="N32">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="9:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:17">
       <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" t="s">
+    </row>
+    <row r="36" spans="9:17">
+      <c r="I36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I36" t="s">
+    <row r="37" spans="9:17">
+      <c r="I37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I39" t="s">
-        <v>17</v>
+    <row r="39" spans="9:17">
+      <c r="I39" s="26" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2565,16 +2708,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AE41" sqref="AE41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="40" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2616,7 +2759,7 @@
       <c r="AM1" s="2"/>
       <c r="AN1" s="12"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2658,7 +2801,7 @@
       <c r="AM2" s="4"/>
       <c r="AN2" s="13"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2691,7 +2834,7 @@
       <c r="AM3" s="4"/>
       <c r="AN3" s="13"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2701,6 +2844,9 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="6"/>
+      <c r="J4" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="T4" s="6"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -2723,7 +2869,7 @@
       <c r="AM4" s="11"/>
       <c r="AN4" s="14"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2745,7 +2891,7 @@
       <c r="Z5" s="6"/>
       <c r="AN5" s="15"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2760,7 +2906,7 @@
       </c>
       <c r="AN6" s="15"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2781,7 +2927,7 @@
       <c r="AK7" s="6"/>
       <c r="AN7" s="15"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2799,13 +2945,17 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
       <c r="AN8" s="15"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="A9" s="7"/>
       <c r="J9" s="6"/>
       <c r="N9" s="10"/>
       <c r="O9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="4" t="s">
         <v>2</v>
@@ -2825,12 +2975,14 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="16"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="A10" s="7"/>
       <c r="H10" t="s">
         <v>1</v>
       </c>
       <c r="N10" s="10"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -2839,9 +2991,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="6"/>
       <c r="AE10" s="6"/>
-      <c r="AF10" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="6"/>
@@ -2850,7 +3000,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="13"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="A11" s="7"/>
       <c r="N11" s="10"/>
       <c r="X11" s="6"/>
@@ -2858,7 +3008,9 @@
       <c r="Z11" s="6"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
+      <c r="AG11" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="6"/>
       <c r="AK11" s="6"/>
@@ -2866,7 +3018,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="13"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2879,6 +3031,8 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="6"/>
@@ -2891,13 +3045,11 @@
       <c r="AH12" s="4"/>
       <c r="AI12" s="6"/>
       <c r="AK12" s="6"/>
-      <c r="AL12" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="13"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2908,8 +3060,8 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
-        <v>2</v>
+      <c r="K13" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="L13" s="6"/>
       <c r="Q13" s="6"/>
@@ -2928,7 +3080,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="13"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2942,9 +3094,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="6"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="R14" s="4"/>
       <c r="S14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="4"/>
@@ -2952,7 +3102,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="13"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2975,7 +3125,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="13"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40">
       <c r="A16" s="7"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="4"/>
@@ -2986,7 +3136,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="13"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="A17" s="7"/>
       <c r="E17" s="6"/>
       <c r="Q17" s="6"/>
@@ -2999,7 +3149,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="13"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40">
       <c r="A18" s="7"/>
       <c r="C18" t="s">
         <v>1</v>
@@ -3011,9 +3161,6 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="4"/>
       <c r="S18" s="6"/>
-      <c r="V18" t="s">
-        <v>5</v>
-      </c>
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
@@ -3024,11 +3171,16 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="13"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="4"/>
       <c r="S19" s="6"/>
+      <c r="U19" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="Y19" s="6"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="4" t="s">
@@ -3042,7 +3194,7 @@
       <c r="AM19" s="4"/>
       <c r="AN19" s="13"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3072,7 +3224,7 @@
       <c r="AM20" s="4"/>
       <c r="AN20" s="13"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3114,7 +3266,7 @@
       <c r="AM21" s="4"/>
       <c r="AN21" s="13"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3156,7 +3308,7 @@
       <c r="AM22" s="4"/>
       <c r="AN22" s="13"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3198,7 +3350,7 @@
       <c r="AM23" s="4"/>
       <c r="AN23" s="13"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3240,7 +3392,7 @@
       <c r="AM24" s="4"/>
       <c r="AN24" s="13"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3282,33 +3434,33 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="17"/>
     </row>
-    <row r="36" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="15:19">
       <c r="O36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="15:19">
       <c r="O37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="15:19">
       <c r="O38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S38">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O40" t="s">
-        <v>21</v>
+    <row r="40" spans="15:19">
+      <c r="O40" s="26" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
